--- a/tut05/output/0501ME05.xlsx
+++ b/tut05/output/0501ME05.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.693877551020408</v>
+        <v>7.69</v>
       </c>
       <c r="C6" t="n">
-        <v>7.522727272727272</v>
+        <v>7.52</v>
       </c>
       <c r="D6" t="n">
-        <v>8.170212765957446</v>
+        <v>8.17</v>
       </c>
       <c r="E6" t="n">
-        <v>7.836734693877551</v>
+        <v>7.84</v>
       </c>
       <c r="F6" t="n">
-        <v>9.130434782608695</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>8.434782608695652</v>
+        <v>8.43</v>
       </c>
       <c r="H6" t="n">
         <v>9.1</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.693877551020408</v>
+        <v>7.69</v>
       </c>
       <c r="C8" t="n">
-        <v>7.612903225806452</v>
+        <v>7.61</v>
       </c>
       <c r="D8" t="n">
         <v>7.8</v>
       </c>
       <c r="E8" t="n">
-        <v>7.809523809523809</v>
+        <v>7.81</v>
       </c>
       <c r="F8" t="n">
-        <v>8.068085106382979</v>
+        <v>8.07</v>
       </c>
       <c r="G8" t="n">
-        <v>8.128113879003559</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>8.249221183800623</v>
+        <v>8.25</v>
       </c>
       <c r="I8" t="n">
-        <v>8.299168975069252</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
   </sheetData>
